--- a/biology/Botanique/Peperomia/Peperomia.xlsx
+++ b/biology/Botanique/Peperomia/Peperomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peperomia (pépéromie en français) est un genre de plantes classées depuis 2003 dans la famille des Piperacées[2]. Les classifications précédentes l'incluaient dans la famille des Peperomiacées (famille de l'ordre des Pipérales qui comptait quatre genres : Manekia, Peperomia, Piperanthera, Verhuellia), fusionnée depuis avec les Piperacées et considérée comme un synonyme[3].
-Le genre Peperomia comprend plus de 1 500 espèces, ce qui en fait un des genres d'Angiospermes les plus grands[4]. La distribution des espèces de Peperomia est tropicale et subtropicale, avec une majorité d'espèces américaines (seulement dix-sept espèces en Afrique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peperomia (pépéromie en français) est un genre de plantes classées depuis 2003 dans la famille des Piperacées. Les classifications précédentes l'incluaient dans la famille des Peperomiacées (famille de l'ordre des Pipérales qui comptait quatre genres : Manekia, Peperomia, Piperanthera, Verhuellia), fusionnée depuis avec les Piperacées et considérée comme un synonyme.
+Le genre Peperomia comprend plus de 1 500 espèces, ce qui en fait un des genres d'Angiospermes les plus grands. La distribution des espèces de Peperomia est tropicale et subtropicale, avec une majorité d'espèces américaines (seulement dix-sept espèces en Afrique).
 Les Peperomia sont des plantes herbacées terrestres ou épiphytes, à port parfois buissonnant, à tige dressée ou rampante. Les feuilles, plus ou moins succulentes selon les espèces, sont soit alternes, soit opposées, soit verticillées.
 Les fleurs sont groupées dans une inflorescence en spadice solitaire (épi+bractée basale) ou en épis groupés en panicule ou en ombelle. Chaque fleur est dépourvue de pétales et de sépales et comporte souvent à la fois des étamines et un ovaire (plantes hermaphrodites).
 </t>
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 mai 2022)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 mai 2022) :
 Peperomia abnormis Trel.
 Peperomia alata Ruiz &amp; Pavón
 Peperomia albovittata C. DC.
@@ -666,7 +680,7 @@
 Peperomia wibomii Yunck.
 Peperomia williamsii C. DC.
 Peperomia yabucoana Urb. &amp; DC.
-Selon ITIS      (16 mai 2022)[6] :
+Selon ITIS      (16 mai 2022) :
 Peperomia alata Ruiz &amp; Pav.
 Peperomia alternifolia Yunck.
 Peperomia amplexicaulis (Sw.) A. Dietr.
@@ -724,7 +738,7 @@
 Peperomia urocarpa Fisch. &amp; C.A. Mey.
 Peperomia wheeleri Britton
 Peperomia yabucoana Urb. &amp; C. DC.
-Selon NCBI  (16 mai 2022)[7] :
+Selon NCBI  (16 mai 2022) :
 Peperomia adamsonia (F.Br.) Yunck., 1937
 Peperomia alternifolia Yunck., 1933
 Peperomia attenuata Yunck., 1936
@@ -828,7 +842,7 @@
 Peperomia verticillata (L.) A.Dietr., 1831
 Peperomia vulcanica Baker &amp; C.H.Wright
 Peperomia wolfgang-krahnii Rauh
-Selon The Plant List            (16 mai 2022)[8] :
+Selon The Plant List            (16 mai 2022) :
 Peperomia abbreviatipes Trel. &amp; Yunck.
 Peperomia abnormis Trel.
 Peperomia abyssinica Miq.
@@ -1607,7 +1621,7 @@
 Peperomia prolifera Yunck.
 Peperomia prostrata B.S. Williams
 Peperomia pseudoalpina Trel.
-Pepero</t>
+Peperomia pseudoal</t>
         </is>
       </c>
     </row>
@@ -1635,9 +1649,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes peperomia n'est pas toxique, que ce soit pour les animaux ou pour les humains[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes peperomia n'est pas toxique, que ce soit pour les animaux ou pour les humains,.
 </t>
         </is>
       </c>
